--- a/artfynd/A 53500-2024 artfynd.xlsx
+++ b/artfynd/A 53500-2024 artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>131244111</v>
+        <v>131244213</v>
       </c>
       <c r="B2" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,28 +691,28 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>med apothecier</t>
+          <t>teleomorf</t>
         </is>
       </c>
       <c r="N2" t="inlineStr"/>
@@ -722,10 +722,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>446673</v>
+        <v>447044</v>
       </c>
       <c r="R2" t="n">
-        <v>7000892</v>
+        <v>7000989</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -760,11 +760,6 @@
           <t>2026-02-19</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Långväxta bålar på flera granar. Vissa bålar är fertila med apothecier.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -790,14 +785,9 @@
           <t>Picea abies</t>
         </is>
       </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>Gren på levande träd</t>
-        </is>
-      </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>Branch on living tree # Picea abies</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -815,10 +805,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>131244108</v>
+        <v>131244111</v>
       </c>
       <c r="B3" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -826,29 +816,28 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
         </is>
       </c>
       <c r="N3" t="inlineStr"/>
@@ -858,10 +847,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>446594</v>
+        <v>446673</v>
       </c>
       <c r="R3" t="n">
-        <v>7000953</v>
+        <v>7000892</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,7 +887,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ringhack, färska, några meter upp på en gran vid kant mot yngre skog.</t>
+          <t>Långväxta bålar på flera granar. Vissa bålar är fertila med apothecier.</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -907,12 +896,13 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Granskog</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -927,12 +917,12 @@
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>Trädstam på levande träd</t>
+          <t>Gren på levande träd</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>Stem on living tree # Picea abies</t>
+          <t>Branch on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -950,10 +940,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>131244213</v>
+        <v>131244108</v>
       </c>
       <c r="B4" t="n">
-        <v>91805</v>
+        <v>57884</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -961,28 +951,29 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N4" t="inlineStr"/>
@@ -992,10 +983,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>447044</v>
+        <v>446594</v>
       </c>
       <c r="R4" t="n">
-        <v>7000989</v>
+        <v>7000953</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,19 +1021,23 @@
           <t>2026-02-19</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Ringhack, färska, några meter upp på en gran vid kant mot yngre skog.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1055,9 +1050,14 @@
           <t>Picea abies</t>
         </is>
       </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>Trädstam på levande träd</t>
+        </is>
+      </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Stem on living tree # Picea abies</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Värsongsflon, Jmt</t>
+          <t>Värsångsflon, Jmt</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -2081,10 +2081,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>131244189</v>
+        <v>131244217</v>
       </c>
       <c r="B13" t="n">
-        <v>58043</v>
+        <v>79244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2092,50 +2092,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>103021</v>
+        <v>6425</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Värsångsflon, Jmt</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>446792</v>
+        <v>447029</v>
       </c>
       <c r="R13" t="n">
-        <v>7001280</v>
+        <v>7000963</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2176,12 +2163,28 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AH13" t="inlineStr">
         <is>
           <t>Barrskog</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr"/>
@@ -2199,10 +2202,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>131244217</v>
+        <v>131244189</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>58043</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2210,37 +2213,50 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>103021</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Värsångsflon, Jmt</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>447029</v>
+        <v>446792</v>
       </c>
       <c r="R14" t="n">
-        <v>7000963</v>
+        <v>7001280</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2281,28 +2297,12 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AH14" t="inlineStr">
         <is>
           <t>Barrskog</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
